--- a/自然.4.xlsx.xlsx
+++ b/自然.4.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mugisama/Desktop/HagiQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD981F9-145C-0942-B9C2-89AC6C15B316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDDF6FB-F5CB-B649-AAEF-469FAFF269B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="500" windowWidth="10940" windowHeight="15720" xr2:uid="{5BAA29A8-4CC2-8346-A067-8C66BCB7BD3C}"/>
   </bookViews>
